--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria.lima\OneDrive - T2C CONSULTORIA LTDA\Documentos\UiPath\TesteEmailXLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://t2cconsultoria365-my.sharepoint.com/personal/maria_lima_t2cconsultoria_com_br/Documents/Documentos/UiPath/Repositório do git/E-mailExcel/Uipaht_Email_Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3264E2F-E24B-40A2-B780-0814FA5E1382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{848B91AA-51C0-4948-8B5C-0052F44AC489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2252E95A-2FC3-4EBE-8B52-97DDD0B92159}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8964" xr2:uid="{7E2CACDC-8197-4469-86AA-A079AAAB1327}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D190036-478B-42A5-B3CB-C7E4D22B0726}"/>
   </bookViews>
   <sheets>
-    <sheet name="Email" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Dados Adicionais" sheetId="4" r:id="rId1"/>
+    <sheet name="Dados Completo" sheetId="3" r:id="rId2"/>
+    <sheet name="Dados Simples" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
-  <si>
-    <t>Nome</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+  <si>
+    <t>Tue, 14 Sep 2021 16:16:48 -0300</t>
+  </si>
+  <si>
+    <t>"Maria Lima" &lt;maria.lima@t2cconsultoria.com.br&gt;</t>
+  </si>
+  <si>
+    <t>Dados Múltiplos</t>
+  </si>
+  <si>
+    <t>Colaborador</t>
   </si>
   <si>
     <t>Idade</t>
@@ -55,13 +66,67 @@
     <t>Maycon</t>
   </si>
   <si>
-    <t>Tue, 14 Sep 2021 15:25:19 -0300</t>
-  </si>
-  <si>
-    <t>"Maria Lima" &lt;maria.lima@t2cconsultoria.com.br&gt;</t>
-  </si>
-  <si>
-    <t>Dados</t>
+    <t>&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Carga horária</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Dev Junior</t>
+  </si>
+  <si>
+    <t>8H</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Junior</t>
+  </si>
+  <si>
+    <t>Developer Junior</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Filme</t>
+  </si>
+  <si>
+    <t>Música</t>
+  </si>
+  <si>
+    <t>Esporte</t>
+  </si>
+  <si>
+    <t>Ficção Cientifica</t>
+  </si>
+  <si>
+    <t>Todas</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>Comédia</t>
+  </si>
+  <si>
+    <t>Funk</t>
+  </si>
+  <si>
+    <t>Ciclismo</t>
+  </si>
+  <si>
+    <t>Ação</t>
+  </si>
+  <si>
+    <t>Futebol</t>
   </si>
 </sst>
 </file>
@@ -412,71 +477,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADCCA9D-10C6-48A3-B5F7-73837ECC0F84}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52E3556-8FB7-4571-BFD7-1EAFA130781D}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>27</v>
-      </c>
-      <c r="F2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="F4">
-        <v>90</v>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -485,14 +564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069C8AE6-8606-4C1E-90F2-954C69082591}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B139751-426B-4250-AB31-86E7B14CE611}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,41 +581,158 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>90</v>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3413E993-D90C-4ECA-A6E7-806A30F61340}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD441B0D-27F5-49D7-AFB7-159FAC590453}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>